--- a/Assets/06.Table/TestMonkey.xlsx
+++ b/Assets/06.Table/TestMonkey.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B7994F-E3F5-4B45-AF64-02FD558AD07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06308039-A44B-44F2-9395-90760D74E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestMonkey" sheetId="1" r:id="rId1"/>
@@ -307,19 +307,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1058,11 +1058,11 @@
       </c>
       <c r="B4" s="4">
         <f>Balacne!F11</f>
-        <v>1.3E+89</v>
+        <v>9.9999999999999999E+88</v>
       </c>
       <c r="C4" s="5" t="str">
         <f>VLOOKUP(B4,Balacne!F:G,2,FALSE)</f>
-        <v>13갈</v>
+        <v>10갈</v>
       </c>
       <c r="D4" s="6">
         <v>43</v>
@@ -1085,11 +1085,11 @@
       </c>
       <c r="B5" s="4">
         <f>Balacne!F12</f>
-        <v>4.2999999999999996E+89</v>
+        <v>4E+89</v>
       </c>
       <c r="C5" s="5" t="str">
         <f>VLOOKUP(B5,Balacne!F:G,2,FALSE)</f>
-        <v>43갈</v>
+        <v>40갈</v>
       </c>
       <c r="D5" s="6">
         <v>43</v>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="B6" s="4">
         <f>Balacne!F13</f>
-        <v>1.51E+90</v>
+        <v>1.4999999999999999E+90</v>
       </c>
       <c r="C6" s="5" t="str">
         <f>VLOOKUP(B6,Balacne!F:G,2,FALSE)</f>
-        <v>151갈</v>
+        <v>150갈</v>
       </c>
       <c r="D6" s="6">
         <v>43</v>
@@ -1139,11 +1139,11 @@
       </c>
       <c r="B7" s="4">
         <f>Balacne!F14</f>
-        <v>5.2599999999999994E+90</v>
+        <v>5.1999999999999997E+90</v>
       </c>
       <c r="C7" s="5" t="str">
         <f>VLOOKUP(B7,Balacne!F:G,2,FALSE)</f>
-        <v>526갈</v>
+        <v>520갈</v>
       </c>
       <c r="D7" s="6">
         <v>43</v>
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B8" s="4">
         <f>Balacne!F15</f>
-        <v>1.8390000000000001E+91</v>
+        <v>1.8E+91</v>
       </c>
       <c r="C8" s="5" t="str">
         <f>VLOOKUP(B8,Balacne!F:G,2,FALSE)</f>
-        <v>1839갈</v>
+        <v>1800갈</v>
       </c>
       <c r="D8" s="6">
         <v>43</v>
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B9" s="4">
         <f>Balacne!F16</f>
-        <v>6.4339999999999999E+91</v>
+        <v>6.3999999999999998E+91</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>VLOOKUP(B9,Balacne!F:G,2,FALSE)</f>
-        <v>6434갈</v>
+        <v>6400갈</v>
       </c>
       <c r="D9" s="6">
         <v>43</v>
@@ -1274,11 +1274,11 @@
       </c>
       <c r="B12" s="4">
         <f>Balacne!F19</f>
-        <v>2.8000000000000004E+93</v>
+        <v>2.0000000000000001E+93</v>
       </c>
       <c r="C12" s="5" t="str">
         <f>VLOOKUP(B12,Balacne!F:G,2,FALSE)</f>
-        <v>28라</v>
+        <v>20라</v>
       </c>
       <c r="D12" s="6">
         <v>43</v>
@@ -1301,11 +1301,11 @@
       </c>
       <c r="B13" s="4">
         <f>Balacne!F20</f>
-        <v>9.6999999999999999E+93</v>
+        <v>8.9999999999999998E+93</v>
       </c>
       <c r="C13" s="5" t="str">
         <f>VLOOKUP(B13,Balacne!F:G,2,FALSE)</f>
-        <v>97라</v>
+        <v>90라</v>
       </c>
       <c r="D13" s="6">
         <v>43</v>
@@ -1328,11 +1328,11 @@
       </c>
       <c r="B14" s="4">
         <f>Balacne!F21</f>
-        <v>3.3800000000000003E+94</v>
+        <v>3.3E+94</v>
       </c>
       <c r="C14" s="5" t="str">
         <f>VLOOKUP(B14,Balacne!F:G,2,FALSE)</f>
-        <v>338라</v>
+        <v>330라</v>
       </c>
       <c r="D14" s="6">
         <v>43</v>
@@ -1355,11 +1355,11 @@
       </c>
       <c r="B15" s="4">
         <f>Balacne!F22</f>
-        <v>1.183E+95</v>
+        <v>1.1000000000000001E+95</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>VLOOKUP(B15,Balacne!F:G,2,FALSE)</f>
-        <v>1183라</v>
+        <v>1100라</v>
       </c>
       <c r="D15" s="6">
         <v>43</v>
@@ -1382,11 +1382,11 @@
       </c>
       <c r="B16" s="4">
         <f>Balacne!F23</f>
-        <v>4.1400000000000002E+95</v>
+        <v>4.1000000000000005E+95</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>VLOOKUP(B16,Balacne!F:G,2,FALSE)</f>
-        <v>4140라</v>
+        <v>4100라</v>
       </c>
       <c r="D16" s="6">
         <v>43</v>
@@ -1463,11 +1463,11 @@
       </c>
       <c r="B19" s="4">
         <f>Balacne!F26</f>
-        <v>1.8000000000000002E+97</v>
+        <v>1.0000000000000001E+97</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>VLOOKUP(B19,Balacne!F:G,2,FALSE)</f>
-        <v>18가</v>
+        <v>10가</v>
       </c>
       <c r="D19" s="6">
         <v>43</v>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="B20" s="4">
         <f>Balacne!F27</f>
-        <v>6.3E+97</v>
+        <v>6.0000000000000004E+97</v>
       </c>
       <c r="C20" s="5" t="str">
         <f>VLOOKUP(B20,Balacne!F:G,2,FALSE)</f>
-        <v>63가</v>
+        <v>60가</v>
       </c>
       <c r="D20" s="6">
         <v>43</v>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B21" s="4">
         <f>Balacne!F28</f>
-        <v>2.18E+98</v>
+        <v>2.1E+98</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>VLOOKUP(B21,Balacne!F:G,2,FALSE)</f>
-        <v>218가</v>
+        <v>210가</v>
       </c>
       <c r="D21" s="6">
         <v>43</v>
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B22" s="4">
         <f>Balacne!F29</f>
-        <v>7.61E+98</v>
+        <v>7.5999999999999998E+98</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>VLOOKUP(B22,Balacne!F:G,2,FALSE)</f>
-        <v>761가</v>
+        <v>760가</v>
       </c>
       <c r="D22" s="6">
         <v>43</v>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="B23" s="4">
         <f>Balacne!F30</f>
-        <v>2.6640000000000002E+99</v>
+        <v>2.6E+99</v>
       </c>
       <c r="C23" s="5" t="str">
         <f>VLOOKUP(B23,Balacne!F:G,2,FALSE)</f>
-        <v>2664가</v>
+        <v>2600가</v>
       </c>
       <c r="D23" s="6">
         <v>43</v>
@@ -1598,11 +1598,11 @@
       </c>
       <c r="B24" s="4">
         <f>Balacne!F31</f>
-        <v>9.3230000000000012E+99</v>
+        <v>9.3000000000000002E+99</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>VLOOKUP(B24,Balacne!F:G,2,FALSE)</f>
-        <v>9323가</v>
+        <v>9300가</v>
       </c>
       <c r="D24" s="6">
         <v>43</v>
@@ -1652,11 +1652,11 @@
       </c>
       <c r="B26" s="4">
         <f>Balacne!F33</f>
-        <v>1.2000000000000001E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="C26" s="5" t="str">
         <f>VLOOKUP(B26,Balacne!F:G,2,FALSE)</f>
-        <v>12언</v>
+        <v>10언</v>
       </c>
       <c r="D26" s="6">
         <v>43</v>
@@ -1679,11 +1679,11 @@
       </c>
       <c r="B27" s="4">
         <f>Balacne!F34</f>
-        <v>3.9999999999999999E+101</v>
+        <v>2.9999999999999999E+101</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>VLOOKUP(B27,Balacne!F:G,2,FALSE)</f>
-        <v>40언</v>
+        <v>30언</v>
       </c>
       <c r="D27" s="6">
         <v>43</v>
@@ -1706,11 +1706,11 @@
       </c>
       <c r="B28" s="4">
         <f>Balacne!F35</f>
-        <v>1.4000000000000001E+102</v>
+        <v>1.3E+102</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>VLOOKUP(B28,Balacne!F:G,2,FALSE)</f>
-        <v>140언</v>
+        <v>130언</v>
       </c>
       <c r="D28" s="6">
         <v>43</v>
@@ -1733,11 +1733,11 @@
       </c>
       <c r="B29" s="4">
         <f>Balacne!F36</f>
-        <v>4.9000000000000004E+102</v>
+        <v>4.7999999999999999E+102</v>
       </c>
       <c r="C29" s="5" t="str">
         <f>VLOOKUP(B29,Balacne!F:G,2,FALSE)</f>
-        <v>490언</v>
+        <v>480언</v>
       </c>
       <c r="D29" s="6">
         <v>43</v>
@@ -1760,11 +1760,11 @@
       </c>
       <c r="B30" s="4">
         <f>Balacne!F37</f>
-        <v>1.7140000000000001E+103</v>
+        <v>1.7000000000000001E+103</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>VLOOKUP(B30,Balacne!F:G,2,FALSE)</f>
-        <v>1714언</v>
+        <v>1700언</v>
       </c>
       <c r="D30" s="6">
         <v>43</v>
@@ -1787,11 +1787,11 @@
       </c>
       <c r="B31" s="4">
         <f>Balacne!F38</f>
-        <v>5.9980000000000004E+103</v>
+        <v>5.8999999999999999E+103</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>VLOOKUP(B31,Balacne!F:G,2,FALSE)</f>
-        <v>5998언</v>
+        <v>5900언</v>
       </c>
       <c r="D31" s="6">
         <v>43</v>
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B34" s="4">
         <f>Balacne!F41</f>
-        <v>2.6000000000000002E+105</v>
+        <v>1.9999999999999999E+105</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>VLOOKUP(B34,Balacne!F:G,2,FALSE)</f>
-        <v>26승</v>
+        <v>20승</v>
       </c>
       <c r="D34" s="6">
         <v>43</v>
@@ -1895,11 +1895,11 @@
       </c>
       <c r="B35" s="4">
         <f>Balacne!F42</f>
-        <v>9.0999999999999997E+105</v>
+        <v>9.0000000000000002E+105</v>
       </c>
       <c r="C35" s="5" t="str">
         <f>VLOOKUP(B35,Balacne!F:G,2,FALSE)</f>
-        <v>91승</v>
+        <v>90승</v>
       </c>
       <c r="D35" s="6">
         <v>43</v>
@@ -1922,11 +1922,11 @@
       </c>
       <c r="B36" s="4">
         <f>Balacne!F43</f>
-        <v>3.16E+106</v>
+        <v>3.0999999999999999E+106</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>VLOOKUP(B36,Balacne!F:G,2,FALSE)</f>
-        <v>316승</v>
+        <v>310승</v>
       </c>
       <c r="D36" s="6">
         <v>43</v>
@@ -1949,11 +1949,11 @@
       </c>
       <c r="B37" s="4">
         <f>Balacne!F44</f>
-        <v>1.1029999999999999E+107</v>
+        <v>1.1E+107</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>VLOOKUP(B37,Balacne!F:G,2,FALSE)</f>
-        <v>1103승</v>
+        <v>1100승</v>
       </c>
       <c r="D37" s="6">
         <v>43</v>
@@ -1976,11 +1976,11 @@
       </c>
       <c r="B38" s="4">
         <f>Balacne!F45</f>
-        <v>3.8600000000000002E+107</v>
+        <v>3.7999999999999998E+107</v>
       </c>
       <c r="C38" s="5" t="str">
         <f>VLOOKUP(B38,Balacne!F:G,2,FALSE)</f>
-        <v>3860승</v>
+        <v>3800승</v>
       </c>
       <c r="D38" s="6">
         <v>43</v>
@@ -2057,11 +2057,11 @@
       </c>
       <c r="B41" s="4">
         <f>Balacne!F48</f>
-        <v>1.7E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="C41" s="5" t="str">
         <f>VLOOKUP(B41,Balacne!F:G,2,FALSE)</f>
-        <v>17마</v>
+        <v>10마</v>
       </c>
       <c r="D41" s="6">
         <v>43</v>
@@ -2084,11 +2084,11 @@
       </c>
       <c r="B42" s="4">
         <f>Balacne!F49</f>
-        <v>5.7999999999999999E+109</v>
+        <v>5.0000000000000001E+109</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>VLOOKUP(B42,Balacne!F:G,2,FALSE)</f>
-        <v>58마</v>
+        <v>50마</v>
       </c>
       <c r="D42" s="6">
         <v>43</v>
@@ -2111,11 +2111,11 @@
       </c>
       <c r="B43" s="4">
         <f>Balacne!F50</f>
-        <v>2.03E+110</v>
+        <v>2E+110</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>VLOOKUP(B43,Balacne!F:G,2,FALSE)</f>
-        <v>203마</v>
+        <v>200마</v>
       </c>
       <c r="D43" s="6">
         <v>43</v>
@@ -2138,11 +2138,11 @@
       </c>
       <c r="B44" s="4">
         <f>Balacne!F51</f>
-        <v>7.0999999999999996E+110</v>
+        <v>6.9999999999999998E+110</v>
       </c>
       <c r="C44" s="5" t="str">
         <f>VLOOKUP(B44,Balacne!F:G,2,FALSE)</f>
-        <v>710마</v>
+        <v>700마</v>
       </c>
       <c r="D44" s="6">
         <v>43</v>
@@ -2165,11 +2165,11 @@
       </c>
       <c r="B45" s="4">
         <f>Balacne!F52</f>
-        <v>2.4830000000000003E+111</v>
+        <v>2.4000000000000001E+111</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>VLOOKUP(B45,Balacne!F:G,2,FALSE)</f>
-        <v>2483마</v>
+        <v>2400마</v>
       </c>
       <c r="D45" s="6">
         <v>43</v>
@@ -2192,11 +2192,11 @@
       </c>
       <c r="B46" s="4">
         <f>Balacne!F53</f>
-        <v>8.6909999999999999E+111</v>
+        <v>8.5999999999999999E+111</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>VLOOKUP(B46,Balacne!F:G,2,FALSE)</f>
-        <v>8691마</v>
+        <v>8600마</v>
       </c>
       <c r="D46" s="6">
         <v>43</v>
@@ -2246,11 +2246,11 @@
       </c>
       <c r="B48" s="4">
         <f>Balacne!F55</f>
-        <v>1.0999999999999999E+113</v>
+        <v>1E+113</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>VLOOKUP(B48,Balacne!F:G,2,FALSE)</f>
-        <v>11살</v>
+        <v>10살</v>
       </c>
       <c r="D48" s="6">
         <v>43</v>
@@ -2273,11 +2273,11 @@
       </c>
       <c r="B49" s="4">
         <f>Balacne!F56</f>
-        <v>3.7999999999999996E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>VLOOKUP(B49,Balacne!F:G,2,FALSE)</f>
-        <v>38살</v>
+        <v>30살</v>
       </c>
       <c r="D49" s="6">
         <v>43</v>
@@ -2300,11 +2300,11 @@
       </c>
       <c r="B50" s="4">
         <f>Balacne!F57</f>
-        <v>1.3099999999999998E+114</v>
+        <v>1.3E+114</v>
       </c>
       <c r="C50" s="5" t="str">
         <f>VLOOKUP(B50,Balacne!F:G,2,FALSE)</f>
-        <v>131살</v>
+        <v>130살</v>
       </c>
       <c r="D50" s="6">
         <v>43</v>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="B51" s="4">
         <f>Balacne!F58</f>
-        <v>4.5699999999999996E+114</v>
+        <v>4.4999999999999995E+114</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>VLOOKUP(B51,Balacne!F:G,2,FALSE)</f>
-        <v>457살</v>
+        <v>450살</v>
       </c>
       <c r="D51" s="6">
         <v>43</v>
@@ -2354,11 +2354,11 @@
       </c>
       <c r="B52" s="4">
         <f>Balacne!F59</f>
-        <v>1.5979999999999998E+115</v>
+        <v>1.4999999999999998E+115</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>VLOOKUP(B52,Balacne!F:G,2,FALSE)</f>
-        <v>1598살</v>
+        <v>1500살</v>
       </c>
       <c r="D52" s="6">
         <v>43</v>
@@ -2373,6 +2373,222 @@
       <c r="G52" s="5">
         <f>VLOOKUP(B52,Balacne!F:L,7,FALSE)</f>
         <v>8.9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" s="4">
+        <f>Balacne!F60</f>
+        <v>5.4999999999999996E+115</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f>VLOOKUP(B53,Balacne!F:G,2,FALSE)</f>
+        <v>5500살</v>
+      </c>
+      <c r="D53" s="6">
+        <v>43</v>
+      </c>
+      <c r="E53" s="5">
+        <f>VLOOKUP(B53,Balacne!F:K,6,FALSE)</f>
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="F53" s="6">
+        <v>43</v>
+      </c>
+      <c r="G53" s="5">
+        <f>VLOOKUP(B53,Balacne!F:L,7,FALSE)</f>
+        <v>9.0000000000000018</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <f>Balacne!F61</f>
+        <v>2E+116</v>
+      </c>
+      <c r="C54" s="5" t="str">
+        <f>VLOOKUP(B54,Balacne!F:G,2,FALSE)</f>
+        <v>2섬</v>
+      </c>
+      <c r="D54" s="6">
+        <v>43</v>
+      </c>
+      <c r="E54" s="5">
+        <f>VLOOKUP(B54,Balacne!F:K,6,FALSE)</f>
+        <v>1.7739999999999998</v>
+      </c>
+      <c r="F54" s="6">
+        <v>43</v>
+      </c>
+      <c r="G54" s="5">
+        <f>VLOOKUP(B54,Balacne!F:L,7,FALSE)</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4">
+        <f>Balacne!F62</f>
+        <v>6.9999999999999999E+116</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <f>VLOOKUP(B55,Balacne!F:G,2,FALSE)</f>
+        <v>7섬</v>
+      </c>
+      <c r="D55" s="6">
+        <v>43</v>
+      </c>
+      <c r="E55" s="5">
+        <f>VLOOKUP(B55,Balacne!F:K,6,FALSE)</f>
+        <v>1.7929999999999999</v>
+      </c>
+      <c r="F55" s="6">
+        <v>43</v>
+      </c>
+      <c r="G55" s="5">
+        <f>VLOOKUP(B55,Balacne!F:L,7,FALSE)</f>
+        <v>9.2000000000000011</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4">
+        <f>Balacne!F63</f>
+        <v>2.0000000000000001E+117</v>
+      </c>
+      <c r="C56" s="5" t="str">
+        <f>VLOOKUP(B56,Balacne!F:G,2,FALSE)</f>
+        <v>20섬</v>
+      </c>
+      <c r="D56" s="6">
+        <v>43</v>
+      </c>
+      <c r="E56" s="5">
+        <f>VLOOKUP(B56,Balacne!F:K,6,FALSE)</f>
+        <v>1.8119999999999998</v>
+      </c>
+      <c r="F56" s="6">
+        <v>43</v>
+      </c>
+      <c r="G56" s="5">
+        <f>VLOOKUP(B56,Balacne!F:L,7,FALSE)</f>
+        <v>9.2999999999999989</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" s="4">
+        <f>Balacne!F64</f>
+        <v>8.0000000000000004E+117</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <f>VLOOKUP(B57,Balacne!F:G,2,FALSE)</f>
+        <v>80섬</v>
+      </c>
+      <c r="D57" s="6">
+        <v>43</v>
+      </c>
+      <c r="E57" s="5">
+        <f>VLOOKUP(B57,Balacne!F:K,6,FALSE)</f>
+        <v>1.8319999999999999</v>
+      </c>
+      <c r="F57" s="6">
+        <v>43</v>
+      </c>
+      <c r="G57" s="5">
+        <f>VLOOKUP(B57,Balacne!F:L,7,FALSE)</f>
+        <v>9.5000000000000018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <f>Balacne!F65</f>
+        <v>2.9000000000000002E+118</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f>VLOOKUP(B58,Balacne!F:G,2,FALSE)</f>
+        <v>290섬</v>
+      </c>
+      <c r="D58" s="6">
+        <v>43</v>
+      </c>
+      <c r="E58" s="5">
+        <f>VLOOKUP(B58,Balacne!F:K,6,FALSE)</f>
+        <v>1.8519999999999999</v>
+      </c>
+      <c r="F58" s="6">
+        <v>43</v>
+      </c>
+      <c r="G58" s="5">
+        <f>VLOOKUP(B58,Balacne!F:L,7,FALSE)</f>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" s="4">
+        <f>Balacne!F66</f>
+        <v>9.9999999999999994E+118</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <f>VLOOKUP(B59,Balacne!F:G,2,FALSE)</f>
+        <v>1000섬</v>
+      </c>
+      <c r="D59" s="6">
+        <v>43</v>
+      </c>
+      <c r="E59" s="5">
+        <f>VLOOKUP(B59,Balacne!F:K,6,FALSE)</f>
+        <v>1.8719999999999999</v>
+      </c>
+      <c r="F59" s="6">
+        <v>43</v>
+      </c>
+      <c r="G59" s="5">
+        <f>VLOOKUP(B59,Balacne!F:L,7,FALSE)</f>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" s="4">
+        <f>Balacne!F67</f>
+        <v>3.5000000000000001E+119</v>
+      </c>
+      <c r="C60" s="5" t="str">
+        <f>VLOOKUP(B60,Balacne!F:G,2,FALSE)</f>
+        <v>3500섬</v>
+      </c>
+      <c r="D60" s="6">
+        <v>43</v>
+      </c>
+      <c r="E60" s="5">
+        <f>VLOOKUP(B60,Balacne!F:K,6,FALSE)</f>
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="F60" s="6">
+        <v>43</v>
+      </c>
+      <c r="G60" s="5">
+        <f>VLOOKUP(B60,Balacne!F:L,7,FALSE)</f>
+        <v>9.8000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2384,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFB9CD8-566A-44BA-87CC-499C9DFAF912}">
-  <dimension ref="A1:Z66"/>
+  <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -2539,11 +2755,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="25">
-        <f>ROUNDUP(H9,0)*J9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))*J9</f>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="G9" s="25" t="str">
-        <f>ROUNDUP(H9,0)&amp;I9</f>
+        <f>IF(H9&lt;10,ROUNDUP(H9,0),IF(H9&lt;100,ROUNDDOWN(H9,-1),IF(H9&lt;1000,ROUNDDOWN(H9,-1),IF(H9&lt;10000,ROUNDDOWN(H9,-2),0))))&amp;I9</f>
         <v>1갈</v>
       </c>
       <c r="H9" s="25">
@@ -2590,11 +2806,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="25">
-        <f t="shared" ref="F10:F66" si="3">ROUNDUP(H10,0)*J10</f>
+        <f t="shared" ref="F10:F66" si="3">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))*J10</f>
         <v>3.9999999999999998E+88</v>
       </c>
       <c r="G10" s="25" t="str">
-        <f t="shared" ref="G10:G66" si="4">ROUNDUP(H10,0)&amp;I10</f>
+        <f t="shared" ref="G10:G66" si="4">IF(H10&lt;10,ROUNDUP(H10,0),IF(H10&lt;100,ROUNDDOWN(H10,-1),IF(H10&lt;1000,ROUNDDOWN(H10,-1),IF(H10&lt;10000,ROUNDDOWN(H10,-2),0))))&amp;I10</f>
         <v>4갈</v>
       </c>
       <c r="H10" s="25">
@@ -2639,14 +2855,14 @@
       </c>
       <c r="F11" s="25">
         <f t="shared" si="3"/>
-        <v>1.3E+89</v>
+        <v>9.9999999999999999E+88</v>
       </c>
       <c r="G11" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>13갈</v>
+        <v>10갈</v>
       </c>
       <c r="H11" s="25">
-        <f t="shared" ref="H11:H66" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H84" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>12.25</v>
       </c>
       <c r="I11" s="24" t="str" cm="1">
@@ -2658,7 +2874,7 @@
         <v>1E+88</v>
       </c>
       <c r="K11" s="24">
-        <f t="shared" ref="K11:K66" si="7">ROUNDUP((K10*(1+$B$14/100)),3)</f>
+        <f t="shared" ref="K11:K84" si="7">ROUNDUP((K10*(1+$B$14/100)),3)</f>
         <v>1.0319999999999998</v>
       </c>
       <c r="L11" s="24">
@@ -2691,11 +2907,11 @@
       </c>
       <c r="F12" s="25">
         <f t="shared" si="3"/>
-        <v>4.2999999999999996E+89</v>
+        <v>4E+89</v>
       </c>
       <c r="G12" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>43갈</v>
+        <v>40갈</v>
       </c>
       <c r="H12" s="25">
         <f t="shared" si="6"/>
@@ -2745,11 +2961,11 @@
       </c>
       <c r="F13" s="25">
         <f t="shared" si="3"/>
-        <v>1.51E+90</v>
+        <v>1.4999999999999999E+90</v>
       </c>
       <c r="G13" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>151갈</v>
+        <v>150갈</v>
       </c>
       <c r="H13" s="25">
         <f t="shared" si="6"/>
@@ -2799,11 +3015,11 @@
       </c>
       <c r="F14" s="25">
         <f t="shared" si="3"/>
-        <v>5.2599999999999994E+90</v>
+        <v>5.1999999999999997E+90</v>
       </c>
       <c r="G14" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>526갈</v>
+        <v>520갈</v>
       </c>
       <c r="H14" s="25">
         <f t="shared" si="6"/>
@@ -2847,11 +3063,11 @@
       </c>
       <c r="F15" s="25">
         <f t="shared" si="3"/>
-        <v>1.8390000000000001E+91</v>
+        <v>1.8E+91</v>
       </c>
       <c r="G15" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1839갈</v>
+        <v>1800갈</v>
       </c>
       <c r="H15" s="25">
         <f t="shared" si="6"/>
@@ -2899,11 +3115,11 @@
       </c>
       <c r="F16" s="25">
         <f t="shared" si="3"/>
-        <v>6.4339999999999999E+91</v>
+        <v>6.3999999999999998E+91</v>
       </c>
       <c r="G16" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>6434갈</v>
+        <v>6400갈</v>
       </c>
       <c r="H16" s="25">
         <f t="shared" si="6"/>
@@ -3061,11 +3277,11 @@
       </c>
       <c r="F19" s="25">
         <f t="shared" si="3"/>
-        <v>2.8000000000000004E+93</v>
+        <v>2.0000000000000001E+93</v>
       </c>
       <c r="G19" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>28라</v>
+        <v>20라</v>
       </c>
       <c r="H19" s="25">
         <f t="shared" si="6"/>
@@ -3115,11 +3331,11 @@
       </c>
       <c r="F20" s="25">
         <f t="shared" si="3"/>
-        <v>9.6999999999999999E+93</v>
+        <v>8.9999999999999998E+93</v>
       </c>
       <c r="G20" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>97라</v>
+        <v>90라</v>
       </c>
       <c r="H20" s="25">
         <f t="shared" si="6"/>
@@ -3169,11 +3385,11 @@
       </c>
       <c r="F21" s="25">
         <f t="shared" si="3"/>
-        <v>3.3800000000000003E+94</v>
+        <v>3.3E+94</v>
       </c>
       <c r="G21" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>338라</v>
+        <v>330라</v>
       </c>
       <c r="H21" s="25">
         <f t="shared" si="6"/>
@@ -3217,11 +3433,11 @@
       </c>
       <c r="F22" s="25">
         <f t="shared" si="3"/>
-        <v>1.183E+95</v>
+        <v>1.1000000000000001E+95</v>
       </c>
       <c r="G22" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1183라</v>
+        <v>1100라</v>
       </c>
       <c r="H22" s="25">
         <f t="shared" si="6"/>
@@ -3264,11 +3480,11 @@
       </c>
       <c r="F23" s="25">
         <f t="shared" si="3"/>
-        <v>4.1400000000000002E+95</v>
+        <v>4.1000000000000005E+95</v>
       </c>
       <c r="G23" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>4140라</v>
+        <v>4100라</v>
       </c>
       <c r="H23" s="25">
         <f t="shared" si="6"/>
@@ -3405,11 +3621,11 @@
       </c>
       <c r="F26" s="25">
         <f t="shared" si="3"/>
-        <v>1.8000000000000002E+97</v>
+        <v>1.0000000000000001E+97</v>
       </c>
       <c r="G26" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>18가</v>
+        <v>10가</v>
       </c>
       <c r="H26" s="25">
         <f t="shared" si="6"/>
@@ -3452,11 +3668,11 @@
       </c>
       <c r="F27" s="25">
         <f t="shared" si="3"/>
-        <v>6.3E+97</v>
+        <v>6.0000000000000004E+97</v>
       </c>
       <c r="G27" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>63가</v>
+        <v>60가</v>
       </c>
       <c r="H27" s="25">
         <f t="shared" si="6"/>
@@ -3499,11 +3715,11 @@
       </c>
       <c r="F28" s="25">
         <f t="shared" si="3"/>
-        <v>2.18E+98</v>
+        <v>2.1E+98</v>
       </c>
       <c r="G28" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>218가</v>
+        <v>210가</v>
       </c>
       <c r="H28" s="25">
         <f t="shared" si="6"/>
@@ -3546,11 +3762,11 @@
       </c>
       <c r="F29" s="25">
         <f t="shared" si="3"/>
-        <v>7.61E+98</v>
+        <v>7.5999999999999998E+98</v>
       </c>
       <c r="G29" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>761가</v>
+        <v>760가</v>
       </c>
       <c r="H29" s="25">
         <f t="shared" si="6"/>
@@ -3593,11 +3809,11 @@
       </c>
       <c r="F30" s="25">
         <f t="shared" si="3"/>
-        <v>2.6640000000000002E+99</v>
+        <v>2.6E+99</v>
       </c>
       <c r="G30" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>2664가</v>
+        <v>2600가</v>
       </c>
       <c r="H30" s="25">
         <f t="shared" si="6"/>
@@ -3640,11 +3856,11 @@
       </c>
       <c r="F31" s="25">
         <f t="shared" si="3"/>
-        <v>9.3230000000000012E+99</v>
+        <v>9.3000000000000002E+99</v>
       </c>
       <c r="G31" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>9323가</v>
+        <v>9300가</v>
       </c>
       <c r="H31" s="25">
         <f t="shared" si="6"/>
@@ -3735,11 +3951,11 @@
       </c>
       <c r="F33" s="25">
         <f t="shared" si="3"/>
-        <v>1.2000000000000001E+101</v>
+        <v>9.9999999999999998E+100</v>
       </c>
       <c r="G33" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>12언</v>
+        <v>10언</v>
       </c>
       <c r="H33" s="25">
         <f t="shared" si="6"/>
@@ -3792,11 +4008,11 @@
       </c>
       <c r="F34" s="25">
         <f t="shared" si="3"/>
-        <v>3.9999999999999999E+101</v>
+        <v>2.9999999999999999E+101</v>
       </c>
       <c r="G34" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>40언</v>
+        <v>30언</v>
       </c>
       <c r="H34" s="25">
         <f t="shared" si="6"/>
@@ -3849,11 +4065,11 @@
       </c>
       <c r="F35" s="25">
         <f t="shared" si="3"/>
-        <v>1.4000000000000001E+102</v>
+        <v>1.3E+102</v>
       </c>
       <c r="G35" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>140언</v>
+        <v>130언</v>
       </c>
       <c r="H35" s="25">
         <f t="shared" si="6"/>
@@ -3906,11 +4122,11 @@
       </c>
       <c r="F36" s="25">
         <f t="shared" si="3"/>
-        <v>4.9000000000000004E+102</v>
+        <v>4.7999999999999999E+102</v>
       </c>
       <c r="G36" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>490언</v>
+        <v>480언</v>
       </c>
       <c r="H36" s="25">
         <f t="shared" si="6"/>
@@ -3963,11 +4179,11 @@
       </c>
       <c r="F37" s="25">
         <f t="shared" si="3"/>
-        <v>1.7140000000000001E+103</v>
+        <v>1.7000000000000001E+103</v>
       </c>
       <c r="G37" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1714언</v>
+        <v>1700언</v>
       </c>
       <c r="H37" s="25">
         <f t="shared" si="6"/>
@@ -3991,7 +4207,7 @@
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O37" s="24">
         <v>120</v>
@@ -4020,11 +4236,11 @@
       </c>
       <c r="F38" s="25">
         <f t="shared" si="3"/>
-        <v>5.9980000000000004E+103</v>
+        <v>5.8999999999999999E+103</v>
       </c>
       <c r="G38" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>5998언</v>
+        <v>5900언</v>
       </c>
       <c r="H38" s="25">
         <f t="shared" si="6"/>
@@ -4048,7 +4264,7 @@
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O38" s="24">
         <v>124</v>
@@ -4104,7 +4320,7 @@
         <v>5.6</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O39" s="24">
         <v>128</v>
@@ -4151,7 +4367,7 @@
         <v>5.7</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="O40" s="24">
         <v>132</v>
@@ -4171,11 +4387,11 @@
       </c>
       <c r="F41" s="25">
         <f t="shared" si="3"/>
-        <v>2.6000000000000002E+105</v>
+        <v>1.9999999999999999E+105</v>
       </c>
       <c r="G41" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>26승</v>
+        <v>20승</v>
       </c>
       <c r="H41" s="25">
         <f t="shared" si="6"/>
@@ -4186,7 +4402,7 @@
         <v>승</v>
       </c>
       <c r="J41" s="24" t="str">
-        <f t="shared" ref="J41:J72" si="9">VLOOKUP(I41,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J41:J66" si="9">VLOOKUP(I41,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K41" s="24">
@@ -4204,11 +4420,11 @@
       </c>
       <c r="F42" s="25">
         <f t="shared" si="3"/>
-        <v>9.0999999999999997E+105</v>
+        <v>9.0000000000000002E+105</v>
       </c>
       <c r="G42" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>91승</v>
+        <v>90승</v>
       </c>
       <c r="H42" s="25">
         <f t="shared" si="6"/>
@@ -4237,11 +4453,11 @@
       </c>
       <c r="F43" s="25">
         <f t="shared" si="3"/>
-        <v>3.16E+106</v>
+        <v>3.0999999999999999E+106</v>
       </c>
       <c r="G43" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>316승</v>
+        <v>310승</v>
       </c>
       <c r="H43" s="25">
         <f t="shared" si="6"/>
@@ -4270,11 +4486,11 @@
       </c>
       <c r="F44" s="25">
         <f t="shared" si="3"/>
-        <v>1.1029999999999999E+107</v>
+        <v>1.1E+107</v>
       </c>
       <c r="G44" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1103승</v>
+        <v>1100승</v>
       </c>
       <c r="H44" s="25">
         <f t="shared" si="6"/>
@@ -4303,11 +4519,11 @@
       </c>
       <c r="F45" s="25">
         <f t="shared" si="3"/>
-        <v>3.8600000000000002E+107</v>
+        <v>3.7999999999999998E+107</v>
       </c>
       <c r="G45" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>3860승</v>
+        <v>3800승</v>
       </c>
       <c r="H45" s="25">
         <f t="shared" si="6"/>
@@ -4402,11 +4618,11 @@
       </c>
       <c r="F48" s="25">
         <f t="shared" si="3"/>
-        <v>1.7E+109</v>
+        <v>9.9999999999999998E+108</v>
       </c>
       <c r="G48" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>17마</v>
+        <v>10마</v>
       </c>
       <c r="H48" s="25">
         <f t="shared" si="6"/>
@@ -4435,11 +4651,11 @@
       </c>
       <c r="F49" s="25">
         <f t="shared" si="3"/>
-        <v>5.7999999999999999E+109</v>
+        <v>5.0000000000000001E+109</v>
       </c>
       <c r="G49" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>58마</v>
+        <v>50마</v>
       </c>
       <c r="H49" s="25">
         <f t="shared" si="6"/>
@@ -4468,11 +4684,11 @@
       </c>
       <c r="F50" s="25">
         <f t="shared" si="3"/>
-        <v>2.03E+110</v>
+        <v>2E+110</v>
       </c>
       <c r="G50" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>203마</v>
+        <v>200마</v>
       </c>
       <c r="H50" s="25">
         <f t="shared" si="6"/>
@@ -4501,11 +4717,11 @@
       </c>
       <c r="F51" s="25">
         <f t="shared" si="3"/>
-        <v>7.0999999999999996E+110</v>
+        <v>6.9999999999999998E+110</v>
       </c>
       <c r="G51" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>710마</v>
+        <v>700마</v>
       </c>
       <c r="H51" s="25">
         <f t="shared" si="6"/>
@@ -4534,11 +4750,11 @@
       </c>
       <c r="F52" s="25">
         <f t="shared" si="3"/>
-        <v>2.4830000000000003E+111</v>
+        <v>2.4000000000000001E+111</v>
       </c>
       <c r="G52" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>2483마</v>
+        <v>2400마</v>
       </c>
       <c r="H52" s="25">
         <f t="shared" si="6"/>
@@ -4567,11 +4783,11 @@
       </c>
       <c r="F53" s="25">
         <f t="shared" si="3"/>
-        <v>8.6909999999999999E+111</v>
+        <v>8.5999999999999999E+111</v>
       </c>
       <c r="G53" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>8691마</v>
+        <v>8600마</v>
       </c>
       <c r="H53" s="25">
         <f t="shared" si="6"/>
@@ -4633,11 +4849,11 @@
       </c>
       <c r="F55" s="25">
         <f t="shared" si="3"/>
-        <v>1.0999999999999999E+113</v>
+        <v>1E+113</v>
       </c>
       <c r="G55" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>11살</v>
+        <v>10살</v>
       </c>
       <c r="H55" s="25">
         <f t="shared" si="6"/>
@@ -4666,11 +4882,11 @@
       </c>
       <c r="F56" s="25">
         <f t="shared" si="3"/>
-        <v>3.7999999999999996E+113</v>
+        <v>2.9999999999999997E+113</v>
       </c>
       <c r="G56" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>38살</v>
+        <v>30살</v>
       </c>
       <c r="H56" s="25">
         <f t="shared" si="6"/>
@@ -4699,11 +4915,11 @@
       </c>
       <c r="F57" s="25">
         <f t="shared" si="3"/>
-        <v>1.3099999999999998E+114</v>
+        <v>1.3E+114</v>
       </c>
       <c r="G57" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>131살</v>
+        <v>130살</v>
       </c>
       <c r="H57" s="25">
         <f t="shared" si="6"/>
@@ -4732,11 +4948,11 @@
       </c>
       <c r="F58" s="25">
         <f t="shared" si="3"/>
-        <v>4.5699999999999996E+114</v>
+        <v>4.4999999999999995E+114</v>
       </c>
       <c r="G58" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>457살</v>
+        <v>450살</v>
       </c>
       <c r="H58" s="25">
         <f t="shared" si="6"/>
@@ -4765,11 +4981,11 @@
       </c>
       <c r="F59" s="25">
         <f t="shared" si="3"/>
-        <v>1.5979999999999998E+115</v>
+        <v>1.4999999999999998E+115</v>
       </c>
       <c r="G59" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1598살</v>
+        <v>1500살</v>
       </c>
       <c r="H59" s="25">
         <f t="shared" si="6"/>
@@ -4798,11 +5014,11 @@
       </c>
       <c r="F60" s="25">
         <f t="shared" si="3"/>
-        <v>5.5919999999999994E+115</v>
+        <v>5.4999999999999996E+115</v>
       </c>
       <c r="G60" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>5592살</v>
+        <v>5500살</v>
       </c>
       <c r="H60" s="25">
         <f t="shared" si="6"/>
@@ -4897,11 +5113,11 @@
       </c>
       <c r="F63" s="25">
         <f t="shared" si="3"/>
-        <v>2.3999999999999999E+117</v>
+        <v>2.0000000000000001E+117</v>
       </c>
       <c r="G63" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>24섬</v>
+        <v>20섬</v>
       </c>
       <c r="H63" s="25">
         <f t="shared" si="6"/>
@@ -4930,11 +5146,11 @@
       </c>
       <c r="F64" s="25">
         <f t="shared" si="3"/>
-        <v>8.4000000000000005E+117</v>
+        <v>8.0000000000000004E+117</v>
       </c>
       <c r="G64" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>84섬</v>
+        <v>80섬</v>
       </c>
       <c r="H64" s="25">
         <f t="shared" si="6"/>
@@ -4963,11 +5179,11 @@
       </c>
       <c r="F65" s="25">
         <f t="shared" si="3"/>
-        <v>2.9399999999999998E+118</v>
+        <v>2.9000000000000002E+118</v>
       </c>
       <c r="G65" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>294섬</v>
+        <v>290섬</v>
       </c>
       <c r="H65" s="25">
         <f t="shared" si="6"/>
@@ -4996,11 +5212,11 @@
       </c>
       <c r="F66" s="25">
         <f t="shared" si="3"/>
-        <v>1.028E+119</v>
+        <v>9.9999999999999994E+118</v>
       </c>
       <c r="G66" s="25" t="str">
         <f t="shared" si="4"/>
-        <v>1028섬</v>
+        <v>1000섬</v>
       </c>
       <c r="H66" s="25">
         <f t="shared" si="6"/>
@@ -5021,6 +5237,600 @@
       <c r="L66" s="24">
         <f t="shared" si="5"/>
         <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="67" spans="5:12">
+      <c r="E67" s="24">
+        <v>59</v>
+      </c>
+      <c r="F67" s="25">
+        <f t="shared" ref="F67:F75" si="10">IF(H67&lt;10,ROUNDUP(H67,0),IF(H67&lt;100,ROUNDDOWN(H67,-1),IF(H67&lt;1000,ROUNDDOWN(H67,-1),IF(H67&lt;10000,ROUNDDOWN(H67,-2),0))))*J67</f>
+        <v>3.5000000000000001E+119</v>
+      </c>
+      <c r="G67" s="25" t="str">
+        <f t="shared" ref="G67:G75" si="11">IF(H67&lt;10,ROUNDUP(H67,0),IF(H67&lt;100,ROUNDDOWN(H67,-1),IF(H67&lt;1000,ROUNDDOWN(H67,-1),IF(H67&lt;10000,ROUNDDOWN(H67,-2),0))))&amp;I67</f>
+        <v>3500섬</v>
+      </c>
+      <c r="H67" s="25">
+        <f t="shared" si="6"/>
+        <v>3597.7064</v>
+      </c>
+      <c r="I67" s="24" t="str" cm="1">
+        <f t="array" ref="I67">IF(AND(H66&gt;100,H67&lt;100),INDEX(N:N,MATCH(I66,N:N,0)+1,0),I66)</f>
+        <v>섬</v>
+      </c>
+      <c r="J67" s="24" t="str">
+        <f t="shared" ref="J67:J75" si="12">VLOOKUP(I67,N:Q,4,FALSE)</f>
+        <v>1E+116</v>
+      </c>
+      <c r="K67" s="24">
+        <f t="shared" si="7"/>
+        <v>1.8919999999999999</v>
+      </c>
+      <c r="L67" s="24">
+        <f t="shared" ref="L67:L75" si="13">E67*$B$18+IF(E67&gt;=5,ROUNDUP((E67/5),0)*$B$19,0)+IF(E67&gt;=10,ROUNDUP((E67/10),0)*$B$20,0)+IF(E67&gt;=20,ROUNDUP((E67/20),0)*$B$21,0)</f>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="68" spans="5:12">
+      <c r="E68" s="24">
+        <v>60</v>
+      </c>
+      <c r="F68" s="25">
+        <f t="shared" si="10"/>
+        <v>2E+120</v>
+      </c>
+      <c r="G68" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>2찰</v>
+      </c>
+      <c r="H68" s="25">
+        <f t="shared" si="6"/>
+        <v>1.2592000000000001</v>
+      </c>
+      <c r="I68" s="24" t="str" cm="1">
+        <f t="array" ref="I68">IF(AND(H67&gt;100,H68&lt;100),INDEX(N:N,MATCH(I67,N:N,0)+1,0),I67)</f>
+        <v>찰</v>
+      </c>
+      <c r="J68" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K68" s="24">
+        <f t="shared" si="7"/>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="L68" s="24">
+        <f t="shared" si="13"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="69" spans="5:12">
+      <c r="E69" s="24">
+        <v>61</v>
+      </c>
+      <c r="F69" s="25">
+        <f t="shared" si="10"/>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="G69" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>5찰</v>
+      </c>
+      <c r="H69" s="25">
+        <f t="shared" si="6"/>
+        <v>4.4071999999999996</v>
+      </c>
+      <c r="I69" s="24" t="str" cm="1">
+        <f t="array" ref="I69">IF(AND(H68&gt;100,H69&lt;100),INDEX(N:N,MATCH(I68,N:N,0)+1,0),I68)</f>
+        <v>찰</v>
+      </c>
+      <c r="J69" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K69" s="24">
+        <f t="shared" si="7"/>
+        <v>1.9329999999999998</v>
+      </c>
+      <c r="L69" s="24">
+        <f t="shared" si="13"/>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="70" spans="5:12">
+      <c r="E70" s="24">
+        <v>62</v>
+      </c>
+      <c r="F70" s="25">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="G70" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>10찰</v>
+      </c>
+      <c r="H70" s="25">
+        <f t="shared" si="6"/>
+        <v>15.4252</v>
+      </c>
+      <c r="I70" s="24" t="str" cm="1">
+        <f t="array" ref="I70">IF(AND(H69&gt;100,H70&lt;100),INDEX(N:N,MATCH(I69,N:N,0)+1,0),I69)</f>
+        <v>찰</v>
+      </c>
+      <c r="J70" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K70" s="24">
+        <f t="shared" si="7"/>
+        <v>1.954</v>
+      </c>
+      <c r="L70" s="24">
+        <f t="shared" si="13"/>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="5:12">
+      <c r="E71" s="24">
+        <v>63</v>
+      </c>
+      <c r="F71" s="25">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="G71" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>50찰</v>
+      </c>
+      <c r="H71" s="25">
+        <f t="shared" si="6"/>
+        <v>53.988199999999999</v>
+      </c>
+      <c r="I71" s="24" t="str" cm="1">
+        <f t="array" ref="I71">IF(AND(H70&gt;100,H71&lt;100),INDEX(N:N,MATCH(I70,N:N,0)+1,0),I70)</f>
+        <v>찰</v>
+      </c>
+      <c r="J71" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K71" s="24">
+        <f t="shared" si="7"/>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="L71" s="24">
+        <f t="shared" si="13"/>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="72" spans="5:12">
+      <c r="E72" s="24">
+        <v>64</v>
+      </c>
+      <c r="F72" s="25">
+        <f t="shared" si="10"/>
+        <v>1.8000000000000001E+122</v>
+      </c>
+      <c r="G72" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>180찰</v>
+      </c>
+      <c r="H72" s="25">
+        <f t="shared" si="6"/>
+        <v>188.95869999999999</v>
+      </c>
+      <c r="I72" s="24" t="str" cm="1">
+        <f t="array" ref="I72">IF(AND(H71&gt;100,H72&lt;100),INDEX(N:N,MATCH(I71,N:N,0)+1,0),I71)</f>
+        <v>찰</v>
+      </c>
+      <c r="J72" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K72" s="24">
+        <f t="shared" si="7"/>
+        <v>1.996</v>
+      </c>
+      <c r="L72" s="24">
+        <f t="shared" si="13"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="5:12">
+      <c r="E73" s="24">
+        <v>65</v>
+      </c>
+      <c r="F73" s="25">
+        <f t="shared" si="10"/>
+        <v>6.5999999999999998E+122</v>
+      </c>
+      <c r="G73" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>660찰</v>
+      </c>
+      <c r="H73" s="25">
+        <f t="shared" si="6"/>
+        <v>661.35550000000001</v>
+      </c>
+      <c r="I73" s="24" t="str" cm="1">
+        <f t="array" ref="I73">IF(AND(H72&gt;100,H73&lt;100),INDEX(N:N,MATCH(I72,N:N,0)+1,0),I72)</f>
+        <v>찰</v>
+      </c>
+      <c r="J73" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K73" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="L73" s="24">
+        <f t="shared" si="13"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="74" spans="5:12">
+      <c r="E74" s="24">
+        <v>66</v>
+      </c>
+      <c r="F74" s="25">
+        <f t="shared" si="10"/>
+        <v>2.2999999999999999E+123</v>
+      </c>
+      <c r="G74" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>2300찰</v>
+      </c>
+      <c r="H74" s="25">
+        <f t="shared" si="6"/>
+        <v>2314.7443000000003</v>
+      </c>
+      <c r="I74" s="24" t="str" cm="1">
+        <f t="array" ref="I74">IF(AND(H73&gt;100,H74&lt;100),INDEX(N:N,MATCH(I73,N:N,0)+1,0),I73)</f>
+        <v>찰</v>
+      </c>
+      <c r="J74" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K74" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0389999999999997</v>
+      </c>
+      <c r="L74" s="24">
+        <f t="shared" si="13"/>
+        <v>11.299999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="5:12">
+      <c r="E75" s="24">
+        <v>67</v>
+      </c>
+      <c r="F75" s="25">
+        <f t="shared" si="10"/>
+        <v>8.0999999999999998E+123</v>
+      </c>
+      <c r="G75" s="25" t="str">
+        <f t="shared" si="11"/>
+        <v>8100찰</v>
+      </c>
+      <c r="H75" s="25">
+        <f t="shared" si="6"/>
+        <v>8101.6050999999998</v>
+      </c>
+      <c r="I75" s="24" t="str" cm="1">
+        <f t="array" ref="I75">IF(AND(H74&gt;100,H75&lt;100),INDEX(N:N,MATCH(I74,N:N,0)+1,0),I74)</f>
+        <v>찰</v>
+      </c>
+      <c r="J75" s="24" t="str">
+        <f t="shared" si="12"/>
+        <v>1E+120</v>
+      </c>
+      <c r="K75" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="L75" s="24">
+        <f t="shared" si="13"/>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="5:12">
+      <c r="E76" s="24">
+        <v>68</v>
+      </c>
+      <c r="F76" s="25">
+        <f t="shared" ref="F76:F84" si="14">IF(H76&lt;10,ROUNDUP(H76,0),IF(H76&lt;100,ROUNDDOWN(H76,-1),IF(H76&lt;1000,ROUNDDOWN(H76,-1),IF(H76&lt;10000,ROUNDDOWN(H76,-2),0))))*J76</f>
+        <v>3E+124</v>
+      </c>
+      <c r="G76" s="25" t="str">
+        <f t="shared" ref="G76:G84" si="15">IF(H76&lt;10,ROUNDUP(H76,0),IF(H76&lt;100,ROUNDDOWN(H76,-1),IF(H76&lt;1000,ROUNDDOWN(H76,-1),IF(H76&lt;10000,ROUNDDOWN(H76,-2),0))))&amp;I76</f>
+        <v>3교</v>
+      </c>
+      <c r="H76" s="25">
+        <f t="shared" si="6"/>
+        <v>2.8356000000000003</v>
+      </c>
+      <c r="I76" s="24" t="str" cm="1">
+        <f t="array" ref="I76">IF(AND(H75&gt;100,H76&lt;100),INDEX(N:N,MATCH(I75,N:N,0)+1,0),I75)</f>
+        <v>교</v>
+      </c>
+      <c r="J76" s="24" t="str">
+        <f t="shared" ref="J76:J84" si="16">VLOOKUP(I76,N:Q,4,FALSE)</f>
+        <v>1E+124</v>
+      </c>
+      <c r="K76" s="24">
+        <f t="shared" si="7"/>
+        <v>2.0829999999999997</v>
+      </c>
+      <c r="L76" s="24">
+        <f t="shared" ref="L76:L84" si="17">E76*$B$18+IF(E76&gt;=5,ROUNDUP((E76/5),0)*$B$19,0)+IF(E76&gt;=10,ROUNDUP((E76/10),0)*$B$20,0)+IF(E76&gt;=20,ROUNDUP((E76/20),0)*$B$21,0)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="77" spans="5:12">
+      <c r="E77" s="24">
+        <v>69</v>
+      </c>
+      <c r="F77" s="25">
+        <f t="shared" si="14"/>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="G77" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>10교</v>
+      </c>
+      <c r="H77" s="25">
+        <f t="shared" si="6"/>
+        <v>9.9245999999999999</v>
+      </c>
+      <c r="I77" s="24" t="str" cm="1">
+        <f t="array" ref="I77">IF(AND(H76&gt;100,H77&lt;100),INDEX(N:N,MATCH(I76,N:N,0)+1,0),I76)</f>
+        <v>교</v>
+      </c>
+      <c r="J77" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K77" s="24">
+        <f t="shared" si="7"/>
+        <v>2.105</v>
+      </c>
+      <c r="L77" s="24">
+        <f t="shared" si="17"/>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="78" spans="5:12">
+      <c r="E78" s="24">
+        <v>70</v>
+      </c>
+      <c r="F78" s="25">
+        <f t="shared" si="14"/>
+        <v>2.9999999999999998E+125</v>
+      </c>
+      <c r="G78" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>30교</v>
+      </c>
+      <c r="H78" s="25">
+        <f t="shared" si="6"/>
+        <v>34.7361</v>
+      </c>
+      <c r="I78" s="24" t="str" cm="1">
+        <f t="array" ref="I78">IF(AND(H77&gt;100,H78&lt;100),INDEX(N:N,MATCH(I77,N:N,0)+1,0),I77)</f>
+        <v>교</v>
+      </c>
+      <c r="J78" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K78" s="24">
+        <f t="shared" si="7"/>
+        <v>2.1279999999999997</v>
+      </c>
+      <c r="L78" s="24">
+        <f t="shared" si="17"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="79" spans="5:12">
+      <c r="E79" s="24">
+        <v>71</v>
+      </c>
+      <c r="F79" s="25">
+        <f t="shared" si="14"/>
+        <v>1.1999999999999999E+126</v>
+      </c>
+      <c r="G79" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>120교</v>
+      </c>
+      <c r="H79" s="25">
+        <f t="shared" si="6"/>
+        <v>121.57640000000001</v>
+      </c>
+      <c r="I79" s="24" t="str" cm="1">
+        <f t="array" ref="I79">IF(AND(H78&gt;100,H79&lt;100),INDEX(N:N,MATCH(I78,N:N,0)+1,0),I78)</f>
+        <v>교</v>
+      </c>
+      <c r="J79" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K79" s="24">
+        <f t="shared" si="7"/>
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="L79" s="24">
+        <f t="shared" si="17"/>
+        <v>12.200000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="5:12">
+      <c r="E80" s="24">
+        <v>72</v>
+      </c>
+      <c r="F80" s="25">
+        <f t="shared" si="14"/>
+        <v>4.1999999999999998E+126</v>
+      </c>
+      <c r="G80" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>420교</v>
+      </c>
+      <c r="H80" s="25">
+        <f t="shared" si="6"/>
+        <v>425.51740000000001</v>
+      </c>
+      <c r="I80" s="24" t="str" cm="1">
+        <f t="array" ref="I80">IF(AND(H79&gt;100,H80&lt;100),INDEX(N:N,MATCH(I79,N:N,0)+1,0),I79)</f>
+        <v>교</v>
+      </c>
+      <c r="J80" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K80" s="24">
+        <f t="shared" si="7"/>
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="L80" s="24">
+        <f t="shared" si="17"/>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="5:12">
+      <c r="E81" s="24">
+        <v>73</v>
+      </c>
+      <c r="F81" s="25">
+        <f t="shared" si="14"/>
+        <v>1.3999999999999999E+127</v>
+      </c>
+      <c r="G81" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>1400교</v>
+      </c>
+      <c r="H81" s="25">
+        <f t="shared" si="6"/>
+        <v>1489.3108999999999</v>
+      </c>
+      <c r="I81" s="24" t="str" cm="1">
+        <f t="array" ref="I81">IF(AND(H80&gt;100,H81&lt;100),INDEX(N:N,MATCH(I80,N:N,0)+1,0),I80)</f>
+        <v>교</v>
+      </c>
+      <c r="J81" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K81" s="24">
+        <f t="shared" si="7"/>
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="L81" s="24">
+        <f t="shared" si="17"/>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="82" spans="5:12">
+      <c r="E82" s="24">
+        <v>74</v>
+      </c>
+      <c r="F82" s="25">
+        <f t="shared" si="14"/>
+        <v>5.1999999999999994E+127</v>
+      </c>
+      <c r="G82" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>5200교</v>
+      </c>
+      <c r="H82" s="25">
+        <f t="shared" si="6"/>
+        <v>5212.5882000000001</v>
+      </c>
+      <c r="I82" s="24" t="str" cm="1">
+        <f t="array" ref="I82">IF(AND(H81&gt;100,H82&lt;100),INDEX(N:N,MATCH(I81,N:N,0)+1,0),I81)</f>
+        <v>교</v>
+      </c>
+      <c r="J82" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+124</v>
+      </c>
+      <c r="K82" s="24">
+        <f t="shared" si="7"/>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="L82" s="24">
+        <f t="shared" si="17"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="83" spans="5:12">
+      <c r="E83" s="24">
+        <v>75</v>
+      </c>
+      <c r="F83" s="25">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="G83" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>2c</v>
+      </c>
+      <c r="H83" s="25">
+        <f t="shared" si="6"/>
+        <v>1.8245</v>
+      </c>
+      <c r="I83" s="24" t="str" cm="1">
+        <f t="array" ref="I83">IF(AND(H82&gt;100,H83&lt;100),INDEX(N:N,MATCH(I82,N:N,0)+1,0),I82)</f>
+        <v>c</v>
+      </c>
+      <c r="J83" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K83" s="24">
+        <f t="shared" si="7"/>
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="L83" s="24">
+        <f t="shared" si="17"/>
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="84" spans="5:12">
+      <c r="E84" s="24">
+        <v>76</v>
+      </c>
+      <c r="F84" s="25">
+        <f t="shared" si="14"/>
+        <v>7.0000000000000009E+128</v>
+      </c>
+      <c r="G84" s="25" t="str">
+        <f t="shared" si="15"/>
+        <v>7c</v>
+      </c>
+      <c r="H84" s="25">
+        <f t="shared" si="6"/>
+        <v>6.3857999999999997</v>
+      </c>
+      <c r="I84" s="24" t="str" cm="1">
+        <f t="array" ref="I84">IF(AND(H83&gt;100,H84&lt;100),INDEX(N:N,MATCH(I83,N:N,0)+1,0),I83)</f>
+        <v>c</v>
+      </c>
+      <c r="J84" s="24" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+128</v>
+      </c>
+      <c r="K84" s="24">
+        <f t="shared" si="7"/>
+        <v>2.2689999999999997</v>
+      </c>
+      <c r="L84" s="24">
+        <f t="shared" si="17"/>
+        <v>12.8</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TestMonkey.xlsx
+++ b/Assets/06.Table/TestMonkey.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06308039-A44B-44F2-9395-90760D74E18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F0D9E-E38A-4C72-8828-094998851D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,6 +316,10 @@
   </si>
   <si>
     <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H59" sqref="H59"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2591,6 +2591,438 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" s="4">
+        <f>Balacne!F68</f>
+        <v>2E+120</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <f>VLOOKUP(B61,Balacne!F:G,2,FALSE)</f>
+        <v>2찰</v>
+      </c>
+      <c r="D61" s="6">
+        <v>43</v>
+      </c>
+      <c r="E61" s="5">
+        <f>VLOOKUP(B61,Balacne!F:K,6,FALSE)</f>
+        <v>1.9119999999999999</v>
+      </c>
+      <c r="F61" s="6">
+        <v>43</v>
+      </c>
+      <c r="G61" s="5">
+        <f>VLOOKUP(B61,Balacne!F:L,7,FALSE)</f>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="4">
+        <f>Balacne!F69</f>
+        <v>4.9999999999999996E+120</v>
+      </c>
+      <c r="C62" s="5" t="str">
+        <f>VLOOKUP(B62,Balacne!F:G,2,FALSE)</f>
+        <v>5찰</v>
+      </c>
+      <c r="D62" s="6">
+        <v>43</v>
+      </c>
+      <c r="E62" s="5">
+        <f>VLOOKUP(B62,Balacne!F:K,6,FALSE)</f>
+        <v>1.9329999999999998</v>
+      </c>
+      <c r="F62" s="6">
+        <v>43</v>
+      </c>
+      <c r="G62" s="5">
+        <f>VLOOKUP(B62,Balacne!F:L,7,FALSE)</f>
+        <v>10.7</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="4">
+        <f>Balacne!F70</f>
+        <v>9.9999999999999992E+120</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f>VLOOKUP(B63,Balacne!F:G,2,FALSE)</f>
+        <v>10찰</v>
+      </c>
+      <c r="D63" s="6">
+        <v>43</v>
+      </c>
+      <c r="E63" s="5">
+        <f>VLOOKUP(B63,Balacne!F:K,6,FALSE)</f>
+        <v>1.954</v>
+      </c>
+      <c r="F63" s="6">
+        <v>43</v>
+      </c>
+      <c r="G63" s="5">
+        <f>VLOOKUP(B63,Balacne!F:L,7,FALSE)</f>
+        <v>10.799999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="4">
+        <f>Balacne!F71</f>
+        <v>5.0000000000000001E+121</v>
+      </c>
+      <c r="C64" s="5" t="str">
+        <f>VLOOKUP(B64,Balacne!F:G,2,FALSE)</f>
+        <v>50찰</v>
+      </c>
+      <c r="D64" s="6">
+        <v>43</v>
+      </c>
+      <c r="E64" s="5">
+        <f>VLOOKUP(B64,Balacne!F:K,6,FALSE)</f>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="F64" s="6">
+        <v>43</v>
+      </c>
+      <c r="G64" s="5">
+        <f>VLOOKUP(B64,Balacne!F:L,7,FALSE)</f>
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="4">
+        <f>Balacne!F72</f>
+        <v>1.8000000000000001E+122</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <f>VLOOKUP(B65,Balacne!F:G,2,FALSE)</f>
+        <v>180찰</v>
+      </c>
+      <c r="D65" s="6">
+        <v>43</v>
+      </c>
+      <c r="E65" s="5">
+        <f>VLOOKUP(B65,Balacne!F:K,6,FALSE)</f>
+        <v>1.996</v>
+      </c>
+      <c r="F65" s="6">
+        <v>43</v>
+      </c>
+      <c r="G65" s="5">
+        <f>VLOOKUP(B65,Balacne!F:L,7,FALSE)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="4">
+        <f>Balacne!F73</f>
+        <v>6.5999999999999998E+122</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f>VLOOKUP(B66,Balacne!F:G,2,FALSE)</f>
+        <v>660찰</v>
+      </c>
+      <c r="D66" s="6">
+        <v>43</v>
+      </c>
+      <c r="E66" s="5">
+        <f>VLOOKUP(B66,Balacne!F:K,6,FALSE)</f>
+        <v>2.0169999999999999</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43</v>
+      </c>
+      <c r="G66" s="5">
+        <f>VLOOKUP(B66,Balacne!F:L,7,FALSE)</f>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="4">
+        <f>Balacne!F74</f>
+        <v>2.2999999999999999E+123</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f>VLOOKUP(B67,Balacne!F:G,2,FALSE)</f>
+        <v>2300찰</v>
+      </c>
+      <c r="D67" s="6">
+        <v>43</v>
+      </c>
+      <c r="E67" s="5">
+        <f>VLOOKUP(B67,Balacne!F:K,6,FALSE)</f>
+        <v>2.0389999999999997</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43</v>
+      </c>
+      <c r="G67" s="5">
+        <f>VLOOKUP(B67,Balacne!F:L,7,FALSE)</f>
+        <v>11.299999999999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="4">
+        <f>Balacne!F75</f>
+        <v>8.0999999999999998E+123</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f>VLOOKUP(B68,Balacne!F:G,2,FALSE)</f>
+        <v>8100찰</v>
+      </c>
+      <c r="D68" s="6">
+        <v>43</v>
+      </c>
+      <c r="E68" s="5">
+        <f>VLOOKUP(B68,Balacne!F:K,6,FALSE)</f>
+        <v>2.0609999999999999</v>
+      </c>
+      <c r="F68" s="6">
+        <v>43</v>
+      </c>
+      <c r="G68" s="5">
+        <f>VLOOKUP(B68,Balacne!F:L,7,FALSE)</f>
+        <v>11.399999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="4">
+        <f>Balacne!F76</f>
+        <v>3E+124</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f>VLOOKUP(B69,Balacne!F:G,2,FALSE)</f>
+        <v>3교</v>
+      </c>
+      <c r="D69" s="6">
+        <v>43</v>
+      </c>
+      <c r="E69" s="5">
+        <f>VLOOKUP(B69,Balacne!F:K,6,FALSE)</f>
+        <v>2.0829999999999997</v>
+      </c>
+      <c r="F69" s="6">
+        <v>43</v>
+      </c>
+      <c r="G69" s="5">
+        <f>VLOOKUP(B69,Balacne!F:L,7,FALSE)</f>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="4">
+        <f>Balacne!F77</f>
+        <v>9.9999999999999992E+124</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f>VLOOKUP(B70,Balacne!F:G,2,FALSE)</f>
+        <v>10교</v>
+      </c>
+      <c r="D70" s="6">
+        <v>43</v>
+      </c>
+      <c r="E70" s="5">
+        <f>VLOOKUP(B70,Balacne!F:K,6,FALSE)</f>
+        <v>2.105</v>
+      </c>
+      <c r="F70" s="6">
+        <v>43</v>
+      </c>
+      <c r="G70" s="5">
+        <f>VLOOKUP(B70,Balacne!F:L,7,FALSE)</f>
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="4">
+        <f>Balacne!F78</f>
+        <v>2.9999999999999998E+125</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f>VLOOKUP(B71,Balacne!F:G,2,FALSE)</f>
+        <v>30교</v>
+      </c>
+      <c r="D71" s="6">
+        <v>43</v>
+      </c>
+      <c r="E71" s="5">
+        <f>VLOOKUP(B71,Balacne!F:K,6,FALSE)</f>
+        <v>2.1279999999999997</v>
+      </c>
+      <c r="F71" s="6">
+        <v>43</v>
+      </c>
+      <c r="G71" s="5">
+        <f>VLOOKUP(B71,Balacne!F:L,7,FALSE)</f>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="4">
+        <f>Balacne!F79</f>
+        <v>1.1999999999999999E+126</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f>VLOOKUP(B72,Balacne!F:G,2,FALSE)</f>
+        <v>120교</v>
+      </c>
+      <c r="D72" s="6">
+        <v>43</v>
+      </c>
+      <c r="E72" s="5">
+        <f>VLOOKUP(B72,Balacne!F:K,6,FALSE)</f>
+        <v>2.1509999999999998</v>
+      </c>
+      <c r="F72" s="6">
+        <v>43</v>
+      </c>
+      <c r="G72" s="5">
+        <f>VLOOKUP(B72,Balacne!F:L,7,FALSE)</f>
+        <v>12.200000000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="4">
+        <f>Balacne!F80</f>
+        <v>4.1999999999999998E+126</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f>VLOOKUP(B73,Balacne!F:G,2,FALSE)</f>
+        <v>420교</v>
+      </c>
+      <c r="D73" s="6">
+        <v>43</v>
+      </c>
+      <c r="E73" s="5">
+        <f>VLOOKUP(B73,Balacne!F:K,6,FALSE)</f>
+        <v>2.1739999999999999</v>
+      </c>
+      <c r="F73" s="6">
+        <v>43</v>
+      </c>
+      <c r="G73" s="5">
+        <f>VLOOKUP(B73,Balacne!F:L,7,FALSE)</f>
+        <v>12.299999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="4">
+        <f>Balacne!F81</f>
+        <v>1.3999999999999999E+127</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f>VLOOKUP(B74,Balacne!F:G,2,FALSE)</f>
+        <v>1400교</v>
+      </c>
+      <c r="D74" s="6">
+        <v>43</v>
+      </c>
+      <c r="E74" s="5">
+        <f>VLOOKUP(B74,Balacne!F:K,6,FALSE)</f>
+        <v>2.1970000000000001</v>
+      </c>
+      <c r="F74" s="6">
+        <v>43</v>
+      </c>
+      <c r="G74" s="5">
+        <f>VLOOKUP(B74,Balacne!F:L,7,FALSE)</f>
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4">
+        <f>Balacne!F82</f>
+        <v>5.1999999999999994E+127</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f>VLOOKUP(B75,Balacne!F:G,2,FALSE)</f>
+        <v>5200교</v>
+      </c>
+      <c r="D75" s="6">
+        <v>43</v>
+      </c>
+      <c r="E75" s="5">
+        <f>VLOOKUP(B75,Balacne!F:K,6,FALSE)</f>
+        <v>2.2210000000000001</v>
+      </c>
+      <c r="F75" s="6">
+        <v>43</v>
+      </c>
+      <c r="G75" s="5">
+        <f>VLOOKUP(B75,Balacne!F:L,7,FALSE)</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="4">
+        <f>Balacne!F83</f>
+        <v>2.0000000000000002E+128</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f>VLOOKUP(B76,Balacne!F:G,2,FALSE)</f>
+        <v>2위</v>
+      </c>
+      <c r="D76" s="6">
+        <v>43</v>
+      </c>
+      <c r="E76" s="5">
+        <f>VLOOKUP(B76,Balacne!F:K,6,FALSE)</f>
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="F76" s="6">
+        <v>43</v>
+      </c>
+      <c r="G76" s="5">
+        <f>VLOOKUP(B76,Balacne!F:L,7,FALSE)</f>
+        <v>12.6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2602,8 +3034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAFB9CD8-566A-44BA-87CC-499C9DFAF912}">
   <dimension ref="A1:Z84"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -4207,7 +4639,7 @@
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" s="24">
         <v>120</v>
@@ -4264,7 +4696,7 @@
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O38" s="24">
         <v>124</v>
@@ -4320,7 +4752,7 @@
         <v>5.6</v>
       </c>
       <c r="N39" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="O39" s="24">
         <v>128</v>
@@ -4367,7 +4799,7 @@
         <v>5.7</v>
       </c>
       <c r="N40" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O40" s="24">
         <v>132</v>
@@ -5777,7 +6209,7 @@
       </c>
       <c r="G83" s="25" t="str">
         <f t="shared" si="15"/>
-        <v>2c</v>
+        <v>2위</v>
       </c>
       <c r="H83" s="25">
         <f t="shared" si="6"/>
@@ -5785,7 +6217,7 @@
       </c>
       <c r="I83" s="24" t="str" cm="1">
         <f t="array" ref="I83">IF(AND(H82&gt;100,H83&lt;100),INDEX(N:N,MATCH(I82,N:N,0)+1,0),I82)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J83" s="24" t="str">
         <f t="shared" si="16"/>
@@ -5810,7 +6242,7 @@
       </c>
       <c r="G84" s="25" t="str">
         <f t="shared" si="15"/>
-        <v>7c</v>
+        <v>7위</v>
       </c>
       <c r="H84" s="25">
         <f t="shared" si="6"/>
@@ -5818,7 +6250,7 @@
       </c>
       <c r="I84" s="24" t="str" cm="1">
         <f t="array" ref="I84">IF(AND(H83&gt;100,H84&lt;100),INDEX(N:N,MATCH(I83,N:N,0)+1,0),I83)</f>
-        <v>c</v>
+        <v>위</v>
       </c>
       <c r="J84" s="24" t="str">
         <f t="shared" si="16"/>

--- a/Assets/06.Table/TestMonkey.xlsx
+++ b/Assets/06.Table/TestMonkey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650F0D9E-E38A-4C72-8828-094998851D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6974A3-E692-4B0F-AE1C-5EA874BDF73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28485" yWindow="225" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TestMonkey" sheetId="1" r:id="rId1"/>
@@ -958,11 +958,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <selection pane="bottomLeft" activeCell="A66" sqref="A66:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2724,303 +2724,6 @@
       <c r="G65" s="5">
         <f>VLOOKUP(B65,Balacne!F:L,7,FALSE)</f>
         <v>11</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="3">
-        <v>64</v>
-      </c>
-      <c r="B66" s="4">
-        <f>Balacne!F73</f>
-        <v>6.5999999999999998E+122</v>
-      </c>
-      <c r="C66" s="5" t="str">
-        <f>VLOOKUP(B66,Balacne!F:G,2,FALSE)</f>
-        <v>660찰</v>
-      </c>
-      <c r="D66" s="6">
-        <v>43</v>
-      </c>
-      <c r="E66" s="5">
-        <f>VLOOKUP(B66,Balacne!F:K,6,FALSE)</f>
-        <v>2.0169999999999999</v>
-      </c>
-      <c r="F66" s="6">
-        <v>43</v>
-      </c>
-      <c r="G66" s="5">
-        <f>VLOOKUP(B66,Balacne!F:L,7,FALSE)</f>
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="3">
-        <v>65</v>
-      </c>
-      <c r="B67" s="4">
-        <f>Balacne!F74</f>
-        <v>2.2999999999999999E+123</v>
-      </c>
-      <c r="C67" s="5" t="str">
-        <f>VLOOKUP(B67,Balacne!F:G,2,FALSE)</f>
-        <v>2300찰</v>
-      </c>
-      <c r="D67" s="6">
-        <v>43</v>
-      </c>
-      <c r="E67" s="5">
-        <f>VLOOKUP(B67,Balacne!F:K,6,FALSE)</f>
-        <v>2.0389999999999997</v>
-      </c>
-      <c r="F67" s="6">
-        <v>43</v>
-      </c>
-      <c r="G67" s="5">
-        <f>VLOOKUP(B67,Balacne!F:L,7,FALSE)</f>
-        <v>11.299999999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="3">
-        <v>66</v>
-      </c>
-      <c r="B68" s="4">
-        <f>Balacne!F75</f>
-        <v>8.0999999999999998E+123</v>
-      </c>
-      <c r="C68" s="5" t="str">
-        <f>VLOOKUP(B68,Balacne!F:G,2,FALSE)</f>
-        <v>8100찰</v>
-      </c>
-      <c r="D68" s="6">
-        <v>43</v>
-      </c>
-      <c r="E68" s="5">
-        <f>VLOOKUP(B68,Balacne!F:K,6,FALSE)</f>
-        <v>2.0609999999999999</v>
-      </c>
-      <c r="F68" s="6">
-        <v>43</v>
-      </c>
-      <c r="G68" s="5">
-        <f>VLOOKUP(B68,Balacne!F:L,7,FALSE)</f>
-        <v>11.399999999999999</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="3">
-        <v>67</v>
-      </c>
-      <c r="B69" s="4">
-        <f>Balacne!F76</f>
-        <v>3E+124</v>
-      </c>
-      <c r="C69" s="5" t="str">
-        <f>VLOOKUP(B69,Balacne!F:G,2,FALSE)</f>
-        <v>3교</v>
-      </c>
-      <c r="D69" s="6">
-        <v>43</v>
-      </c>
-      <c r="E69" s="5">
-        <f>VLOOKUP(B69,Balacne!F:K,6,FALSE)</f>
-        <v>2.0829999999999997</v>
-      </c>
-      <c r="F69" s="6">
-        <v>43</v>
-      </c>
-      <c r="G69" s="5">
-        <f>VLOOKUP(B69,Balacne!F:L,7,FALSE)</f>
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="3">
-        <v>68</v>
-      </c>
-      <c r="B70" s="4">
-        <f>Balacne!F77</f>
-        <v>9.9999999999999992E+124</v>
-      </c>
-      <c r="C70" s="5" t="str">
-        <f>VLOOKUP(B70,Balacne!F:G,2,FALSE)</f>
-        <v>10교</v>
-      </c>
-      <c r="D70" s="6">
-        <v>43</v>
-      </c>
-      <c r="E70" s="5">
-        <f>VLOOKUP(B70,Balacne!F:K,6,FALSE)</f>
-        <v>2.105</v>
-      </c>
-      <c r="F70" s="6">
-        <v>43</v>
-      </c>
-      <c r="G70" s="5">
-        <f>VLOOKUP(B70,Balacne!F:L,7,FALSE)</f>
-        <v>11.6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="3">
-        <v>69</v>
-      </c>
-      <c r="B71" s="4">
-        <f>Balacne!F78</f>
-        <v>2.9999999999999998E+125</v>
-      </c>
-      <c r="C71" s="5" t="str">
-        <f>VLOOKUP(B71,Balacne!F:G,2,FALSE)</f>
-        <v>30교</v>
-      </c>
-      <c r="D71" s="6">
-        <v>43</v>
-      </c>
-      <c r="E71" s="5">
-        <f>VLOOKUP(B71,Balacne!F:K,6,FALSE)</f>
-        <v>2.1279999999999997</v>
-      </c>
-      <c r="F71" s="6">
-        <v>43</v>
-      </c>
-      <c r="G71" s="5">
-        <f>VLOOKUP(B71,Balacne!F:L,7,FALSE)</f>
-        <v>11.7</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="3">
-        <v>70</v>
-      </c>
-      <c r="B72" s="4">
-        <f>Balacne!F79</f>
-        <v>1.1999999999999999E+126</v>
-      </c>
-      <c r="C72" s="5" t="str">
-        <f>VLOOKUP(B72,Balacne!F:G,2,FALSE)</f>
-        <v>120교</v>
-      </c>
-      <c r="D72" s="6">
-        <v>43</v>
-      </c>
-      <c r="E72" s="5">
-        <f>VLOOKUP(B72,Balacne!F:K,6,FALSE)</f>
-        <v>2.1509999999999998</v>
-      </c>
-      <c r="F72" s="6">
-        <v>43</v>
-      </c>
-      <c r="G72" s="5">
-        <f>VLOOKUP(B72,Balacne!F:L,7,FALSE)</f>
-        <v>12.200000000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="3">
-        <v>71</v>
-      </c>
-      <c r="B73" s="4">
-        <f>Balacne!F80</f>
-        <v>4.1999999999999998E+126</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <f>VLOOKUP(B73,Balacne!F:G,2,FALSE)</f>
-        <v>420교</v>
-      </c>
-      <c r="D73" s="6">
-        <v>43</v>
-      </c>
-      <c r="E73" s="5">
-        <f>VLOOKUP(B73,Balacne!F:K,6,FALSE)</f>
-        <v>2.1739999999999999</v>
-      </c>
-      <c r="F73" s="6">
-        <v>43</v>
-      </c>
-      <c r="G73" s="5">
-        <f>VLOOKUP(B73,Balacne!F:L,7,FALSE)</f>
-        <v>12.299999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="3">
-        <v>72</v>
-      </c>
-      <c r="B74" s="4">
-        <f>Balacne!F81</f>
-        <v>1.3999999999999999E+127</v>
-      </c>
-      <c r="C74" s="5" t="str">
-        <f>VLOOKUP(B74,Balacne!F:G,2,FALSE)</f>
-        <v>1400교</v>
-      </c>
-      <c r="D74" s="6">
-        <v>43</v>
-      </c>
-      <c r="E74" s="5">
-        <f>VLOOKUP(B74,Balacne!F:K,6,FALSE)</f>
-        <v>2.1970000000000001</v>
-      </c>
-      <c r="F74" s="6">
-        <v>43</v>
-      </c>
-      <c r="G74" s="5">
-        <f>VLOOKUP(B74,Balacne!F:L,7,FALSE)</f>
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="4">
-        <f>Balacne!F82</f>
-        <v>5.1999999999999994E+127</v>
-      </c>
-      <c r="C75" s="5" t="str">
-        <f>VLOOKUP(B75,Balacne!F:G,2,FALSE)</f>
-        <v>5200교</v>
-      </c>
-      <c r="D75" s="6">
-        <v>43</v>
-      </c>
-      <c r="E75" s="5">
-        <f>VLOOKUP(B75,Balacne!F:K,6,FALSE)</f>
-        <v>2.2210000000000001</v>
-      </c>
-      <c r="F75" s="6">
-        <v>43</v>
-      </c>
-      <c r="G75" s="5">
-        <f>VLOOKUP(B75,Balacne!F:L,7,FALSE)</f>
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="4">
-        <f>Balacne!F83</f>
-        <v>2.0000000000000002E+128</v>
-      </c>
-      <c r="C76" s="5" t="str">
-        <f>VLOOKUP(B76,Balacne!F:G,2,FALSE)</f>
-        <v>2위</v>
-      </c>
-      <c r="D76" s="6">
-        <v>43</v>
-      </c>
-      <c r="E76" s="5">
-        <f>VLOOKUP(B76,Balacne!F:K,6,FALSE)</f>
-        <v>2.2450000000000001</v>
-      </c>
-      <c r="F76" s="6">
-        <v>43</v>
-      </c>
-      <c r="G76" s="5">
-        <f>VLOOKUP(B76,Balacne!F:L,7,FALSE)</f>
-        <v>12.6</v>
       </c>
     </row>
   </sheetData>
